--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -54,9 +54,6 @@
     <t>Assets\Game\AssetBundles\SpriteAtlas</t>
   </si>
   <si>
-    <t>Assets\Game\AssetBundles\UIWindow</t>
-  </si>
-  <si>
     <t>Assets\Game\XLuaScript</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Assets\Example\AssetBundles\SpriteAtlas\CastingAperture</t>
+  </si>
+  <si>
+    <t>Assets\Example\AssetBundles\SpriteAtlas\Guide</t>
   </si>
   <si>
     <t>Assets\Example\AssetBundles\SpriteAtlas\HeroShow</t>
@@ -666,7 +666,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-1848215035</v>
+        <v>-217314462</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>-217314462</v>
+        <v>833541447</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>833541447</v>
+        <v>-54790966</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>-54790966</v>
+        <v>-564773012</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>-564773012</v>
+        <v>-138886169</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>-138886169</v>
+        <v>-604696863</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>-604696863</v>
+        <v>-709248962</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>-709248962</v>
+        <v>-1306576225</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>-1306576225</v>
+        <v>2077842219</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>2077842219</v>
+        <v>-321661972</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>-321661972</v>
+        <v>1818256112</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>1818256112</v>
+        <v>1491052087</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>1491052087</v>
+        <v>-1795478394</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>23</v>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -644,7 +644,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>-407640863</v>
+        <v>2130076485</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>-690277213</v>
+        <v>1148303718</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-217314462</v>
+        <v>-764457537</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>833541447</v>
+        <v>703074975</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>-54790966</v>
+        <v>-2004506147</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>-564773012</v>
+        <v>1536776472</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>-138886169</v>
+        <v>-1919546133</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>-604696863</v>
+        <v>1325637814</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>-709248962</v>
+        <v>-1405308702</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>-1306576225</v>
+        <v>-1408754900</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>2077842219</v>
+        <v>1311652878</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>-321661972</v>
+        <v>853849619</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>1818256112</v>
+        <v>1498651392</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>1491052087</v>
+        <v>-143016780</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>-1795478394</v>
+        <v>-228276413</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>23</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>-1906462643</v>
+        <v>697093135</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>-1842992926</v>
+        <v>-1099268540</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>25</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>1040554598</v>
+        <v>-1080227996</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>281039821</v>
+        <v>1006479116</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>27</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>1242333133</v>
+        <v>851451727</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>28</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>-2024372685</v>
+        <v>303790042</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>29</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>1794619554</v>
+        <v>779000644</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>-1043141469</v>
+        <v>1205799434</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>31</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>1555904384</v>
+        <v>1993197872</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>32</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>-1762047952</v>
+        <v>1753185237</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>33</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>-1586573444</v>
+        <v>1553275941</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>34</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>-773123988</v>
+        <v>417181438</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>35</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>-981518740</v>
+        <v>-1422368536</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>36</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>679003640</v>
+        <v>-41951286</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>37</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>-392477947</v>
+        <v>498502262</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>38</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>764955609</v>
+        <v>2118059982</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>39</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>-887612720</v>
+        <v>-1278219496</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>40</v>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>folderId</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Assets\Game\AssetBundles\SpriteAtlas</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\UIWindow\Login</t>
   </si>
   <si>
     <t>Assets\Game\XLuaScript</t>
@@ -596,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
@@ -666,18 +669,16 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-764457537</v>
+        <v>-1255526873</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>703074975</v>
+        <v>-764457537</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -688,7 +689,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>-2004506147</v>
+        <v>703074975</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -699,7 +700,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>1536776472</v>
+        <v>-2004506147</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
@@ -710,7 +711,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>-1919546133</v>
+        <v>1536776472</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -721,7 +722,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>1325637814</v>
+        <v>-1919546133</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -732,7 +733,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>-1405308702</v>
+        <v>1325637814</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -743,7 +744,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>-1408754900</v>
+        <v>-1405308702</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
@@ -754,7 +755,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>1311652878</v>
+        <v>-1408754900</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -765,7 +766,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>853849619</v>
+        <v>1311652878</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -776,7 +777,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>1498651392</v>
+        <v>853849619</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
@@ -787,7 +788,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>-143016780</v>
+        <v>1498651392</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>22</v>
@@ -798,7 +799,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>-228276413</v>
+        <v>-143016780</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>23</v>
@@ -809,7 +810,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>697093135</v>
+        <v>-228276413</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
@@ -820,7 +821,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>-1099268540</v>
+        <v>697093135</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>25</v>
@@ -831,7 +832,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>-1080227996</v>
+        <v>-1099268540</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
@@ -842,7 +843,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>1006479116</v>
+        <v>-1080227996</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>27</v>
@@ -853,7 +854,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>851451727</v>
+        <v>1006479116</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>28</v>
@@ -864,7 +865,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>303790042</v>
+        <v>851451727</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>29</v>
@@ -875,7 +876,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>779000644</v>
+        <v>303790042</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
@@ -886,7 +887,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>1205799434</v>
+        <v>779000644</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>31</v>
@@ -897,7 +898,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>1993197872</v>
+        <v>1205799434</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>32</v>
@@ -908,7 +909,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>1753185237</v>
+        <v>1993197872</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>33</v>
@@ -919,7 +920,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>1553275941</v>
+        <v>1753185237</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>34</v>
@@ -930,7 +931,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>417181438</v>
+        <v>1553275941</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>35</v>
@@ -941,7 +942,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>-1422368536</v>
+        <v>417181438</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>36</v>
@@ -952,7 +953,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>-41951286</v>
+        <v>-1422368536</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>37</v>
@@ -963,7 +964,7 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>498502262</v>
+        <v>-41951286</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>38</v>
@@ -974,7 +975,7 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>2118059982</v>
+        <v>498502262</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>39</v>
@@ -985,12 +986,23 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>-1278219496</v>
+        <v>2118059982</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3">
+        <v>-1278219496</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -674,7 +674,9 @@
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3">

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>folderId</t>
   </si>
@@ -48,103 +48,199 @@
     <t>Assets\Game\AssetBundles\Materials</t>
   </si>
   <si>
-    <t/>
+    <t>assets\game\assetbundles\materials</t>
   </si>
   <si>
     <t>Assets\Game\AssetBundles\SpriteAtlas</t>
   </si>
   <si>
+    <t>assets\game\assetbundles\spriteatlas</t>
+  </si>
+  <si>
     <t>Assets\Game\AssetBundles\UIWindow\Login</t>
   </si>
   <si>
+    <t>assets\game\assetbundles\uiwindow\login</t>
+  </si>
+  <si>
     <t>Assets\Game\XLuaScript</t>
   </si>
   <si>
+    <t>assets\game\xluascript</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\Fonts</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\fonts</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\Prefabs\Character</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\prefabs\character</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\Prefabs\Normal</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\prefabs\normal</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\Prefabs\Skill\Hero_1002</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\prefabs\skill\hero_1002</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\Scene</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\scene</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\Sprite\Diaphragm</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\sprite\diaphragm</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\Sprite\Loading</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\sprite\loading</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\Sprite\Lobby</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\sprite\lobby</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\Sprite\Login</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\sprite\login</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\SpriteAtlas\Battle</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\spriteatlas\battle</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\SpriteAtlas\CastingAperture</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\spriteatlas\castingaperture</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\SpriteAtlas\Guide</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\spriteatlas\guide</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\SpriteAtlas\HeroShow</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\spriteatlas\heroshow</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\SpriteAtlas\Loading</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\spriteatlas\loading</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\SpriteAtlas\Lobby</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\spriteatlas\lobby</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\SpriteAtlas\Login</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\spriteatlas\login</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\SpriteAtlas\Match</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\spriteatlas\match</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\SpriteAtlas\Share</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\spriteatlas\share</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\SpriteAtlas\Shop</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\spriteatlas\shop</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\SpriteAtlas\Skill</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\spriteatlas\skill</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\Terrain</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\terrain</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\Timeline</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\timeline</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\UIWindow\ExampleGuide</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\uiwindow\exampleguide</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\UIWindow\ExampleHeroList</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\uiwindow\exampleherolist</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\UIWindow\ExampleLobby</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\uiwindow\examplelobby</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\UIWindow\ExampleMessageBox</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\uiwindow\examplemessagebox</t>
+  </si>
+  <si>
     <t>Assets\Example\AssetBundles\UIWindow\ExamplePlayerList</t>
   </si>
   <si>
+    <t>assets\example\assetbundles\uiwindow\exampleplayerlist</t>
+  </si>
+  <si>
     <t>Assets\Example\XLuaScript\Level</t>
   </si>
   <si>
+    <t>assets\example\xluascript\level</t>
+  </si>
+  <si>
     <t>Assets\Example\XLuaScript\UIWindow\ExampleHeroListWindow</t>
+  </si>
+  <si>
+    <t>assets\example\xluascript\uiwindow\exampleherolistwindow</t>
   </si>
 </sst>
 </file>
@@ -664,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -672,10 +768,10 @@
         <v>-1255526873</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -683,10 +779,10 @@
         <v>-764457537</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -694,10 +790,10 @@
         <v>703074975</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -705,10 +801,10 @@
         <v>-2004506147</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -716,10 +812,10 @@
         <v>1536776472</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -727,10 +823,10 @@
         <v>-1919546133</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -738,10 +834,10 @@
         <v>1325637814</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -749,10 +845,10 @@
         <v>-1405308702</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -760,10 +856,10 @@
         <v>-1408754900</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -771,10 +867,10 @@
         <v>1311652878</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -782,10 +878,10 @@
         <v>853849619</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -793,10 +889,10 @@
         <v>1498651392</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -804,10 +900,10 @@
         <v>-143016780</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
@@ -815,10 +911,10 @@
         <v>-228276413</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
@@ -826,10 +922,10 @@
         <v>697093135</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
@@ -837,10 +933,10 @@
         <v>-1099268540</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
@@ -848,10 +944,10 @@
         <v>-1080227996</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
@@ -859,10 +955,10 @@
         <v>1006479116</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
@@ -870,10 +966,10 @@
         <v>851451727</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
@@ -881,10 +977,10 @@
         <v>303790042</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -892,10 +988,10 @@
         <v>779000644</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +999,10 @@
         <v>1205799434</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -914,10 +1010,10 @@
         <v>1993197872</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -925,10 +1021,10 @@
         <v>1753185237</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -936,10 +1032,10 @@
         <v>1553275941</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
@@ -947,10 +1043,10 @@
         <v>417181438</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
@@ -958,10 +1054,10 @@
         <v>-1422368536</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
@@ -969,10 +1065,10 @@
         <v>-41951286</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
@@ -980,10 +1076,10 @@
         <v>498502262</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35">
@@ -991,10 +1087,10 @@
         <v>2118059982</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
@@ -1002,10 +1098,10 @@
         <v>-1278219496</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/AssetDiskMapingFolder.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>folderId</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>外部资源路径</t>
+  </si>
+  <si>
+    <t>Assets\Game\AssetBundles\Assets</t>
+  </si>
+  <si>
+    <t>assets\game\assetbundles\assets</t>
   </si>
   <si>
     <t>Assets\Game\AssetBundles\Materials</t>
@@ -695,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
@@ -743,7 +749,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>2130076485</v>
+        <v>27702436</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -754,7 +760,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>1148303718</v>
+        <v>2130076485</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -765,7 +771,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-1255526873</v>
+        <v>1148303718</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -776,7 +782,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>-764457537</v>
+        <v>-1255526873</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
@@ -787,7 +793,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>703074975</v>
+        <v>-764457537</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -798,7 +804,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>-2004506147</v>
+        <v>703074975</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>18</v>
@@ -809,7 +815,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>1536776472</v>
+        <v>-2004506147</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>20</v>
@@ -820,7 +826,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>-1919546133</v>
+        <v>1536776472</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>22</v>
@@ -831,7 +837,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>1325637814</v>
+        <v>-1919546133</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -842,7 +848,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>-1405308702</v>
+        <v>1325637814</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>26</v>
@@ -853,7 +859,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>-1408754900</v>
+        <v>-1405308702</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>28</v>
@@ -864,7 +870,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>1311652878</v>
+        <v>-1408754900</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>30</v>
@@ -875,7 +881,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>853849619</v>
+        <v>1311652878</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>32</v>
@@ -886,7 +892,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>1498651392</v>
+        <v>853849619</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>34</v>
@@ -897,7 +903,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>-143016780</v>
+        <v>1498651392</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>36</v>
@@ -908,7 +914,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>-228276413</v>
+        <v>-143016780</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>38</v>
@@ -919,7 +925,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>697093135</v>
+        <v>-228276413</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>40</v>
@@ -930,7 +936,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>-1099268540</v>
+        <v>697093135</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>42</v>
@@ -941,7 +947,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>-1080227996</v>
+        <v>-1099268540</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>44</v>
@@ -952,7 +958,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>1006479116</v>
+        <v>-1080227996</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>46</v>
@@ -963,7 +969,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>851451727</v>
+        <v>1006479116</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>48</v>
@@ -974,7 +980,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>303790042</v>
+        <v>851451727</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>50</v>
@@ -985,7 +991,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>779000644</v>
+        <v>303790042</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>52</v>
@@ -996,7 +1002,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>1205799434</v>
+        <v>779000644</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>54</v>
@@ -1007,7 +1013,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>1993197872</v>
+        <v>1205799434</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>56</v>
@@ -1018,7 +1024,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>1753185237</v>
+        <v>1993197872</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>58</v>
@@ -1029,7 +1035,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>1553275941</v>
+        <v>1753185237</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>60</v>
@@ -1040,7 +1046,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>417181438</v>
+        <v>1553275941</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>62</v>
@@ -1051,7 +1057,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>-1422368536</v>
+        <v>417181438</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>64</v>
@@ -1062,7 +1068,7 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>-41951286</v>
+        <v>-1422368536</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>66</v>
@@ -1073,7 +1079,7 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>498502262</v>
+        <v>-41951286</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>68</v>
@@ -1084,7 +1090,7 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>2118059982</v>
+        <v>498502262</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>70</v>
@@ -1095,13 +1101,24 @@
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>-1278219496</v>
+        <v>2118059982</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3">
+        <v>-1278219496</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
